--- a/NEW HR/RODRIGUEZ, JOSEPHINE.xlsx
+++ b/NEW HR/RODRIGUEZ, JOSEPHINE.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="94">
   <si>
     <t>PERIOD</t>
   </si>
@@ -291,6 +291,33 @@
   </si>
   <si>
     <t>9/13-15/2023</t>
+  </si>
+  <si>
+    <t>VL(12-0-0)</t>
+  </si>
+  <si>
+    <t>10/16-31/2023</t>
+  </si>
+  <si>
+    <t>VL(9-0-0)</t>
+  </si>
+  <si>
+    <t>11/3,6-10,13-15/2023</t>
+  </si>
+  <si>
+    <t>12/11,12/2023</t>
+  </si>
+  <si>
+    <t>11/24,29,30/2023</t>
+  </si>
+  <si>
+    <t>12/13-15/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>12/18-22,26-29/2023</t>
   </si>
 </sst>
 </file>
@@ -674,14 +701,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -691,9 +721,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1222,7 +1249,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K106" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K107" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -1581,12 +1608,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K106"/>
+  <dimension ref="A2:K107"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="I6" sqref="I6"/>
-      <selection pane="bottomLeft" activeCell="E86" sqref="E86"/>
+      <selection pane="bottomLeft" activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1616,14 +1643,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1634,16 +1661,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>35947</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1656,14 +1683,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1689,18 +1716,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1747,7 +1774,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>60</v>
+        <v>63.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1757,7 +1784,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>85</v>
+        <v>88.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3277,13 +3304,15 @@
         <v>45170</v>
       </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="40"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="40"/>
       <c r="I84" s="9"/>
@@ -3295,13 +3324,15 @@
         <v>45200</v>
       </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="40"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="40"/>
       <c r="I85" s="9"/>
@@ -3313,13 +3344,15 @@
         <v>45231</v>
       </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="40"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="40"/>
       <c r="I86" s="9"/>
@@ -3345,7 +3378,9 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="41"/>
+      <c r="A88" s="47" t="s">
+        <v>92</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="40"/>
@@ -3361,7 +3396,9 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="41"/>
+      <c r="A89" s="41">
+        <v>45292</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="40"/>
@@ -3377,7 +3414,9 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="41"/>
+      <c r="A90" s="41">
+        <v>45323</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="40"/>
@@ -3393,7 +3432,9 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="41"/>
+      <c r="A91" s="41">
+        <v>45352</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="40"/>
@@ -3409,7 +3450,9 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="41"/>
+      <c r="A92" s="41">
+        <v>45383</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="40"/>
@@ -3425,7 +3468,9 @@
       <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="41"/>
+      <c r="A93" s="41">
+        <v>45413</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="40"/>
@@ -3441,7 +3486,9 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="41"/>
+      <c r="A94" s="41">
+        <v>45444</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="40"/>
@@ -3457,7 +3504,9 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="41"/>
+      <c r="A95" s="41">
+        <v>45474</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="40"/>
@@ -3473,7 +3522,9 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="41"/>
+      <c r="A96" s="41">
+        <v>45505</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="40"/>
@@ -3489,7 +3540,9 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="41"/>
+      <c r="A97" s="41">
+        <v>45536</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="40"/>
@@ -3505,7 +3558,9 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="41"/>
+      <c r="A98" s="41">
+        <v>45566</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="40"/>
@@ -3633,34 +3688,50 @@
       <c r="K105" s="20"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="42"/>
-      <c r="B106" s="15"/>
-      <c r="C106" s="43"/>
-      <c r="D106" s="44"/>
+      <c r="A106" s="41"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="40"/>
       <c r="E106" s="9"/>
-      <c r="F106" s="15"/>
-      <c r="G106" s="43" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H106" s="44"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H106" s="40"/>
       <c r="I106" s="9"/>
-      <c r="J106" s="12"/>
-      <c r="K106" s="15"/>
+      <c r="J106" s="11"/>
+      <c r="K106" s="20"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="42"/>
+      <c r="B107" s="15"/>
+      <c r="C107" s="43"/>
+      <c r="D107" s="44"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="43" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H107" s="44"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3696,9 +3767,9 @@
   <dimension ref="A2:K73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3810" topLeftCell="A45" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A54" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
+      <selection pane="bottomLeft" activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3728,14 +3799,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3746,16 +3817,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>35947</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3768,16 +3839,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3803,18 +3874,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3861,7 +3932,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>216.75</v>
+        <v>181.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3871,7 +3942,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4982,10 +5053,16 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="41"/>
-      <c r="B60" s="20"/>
+      <c r="A60" s="41">
+        <v>45208</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="C60" s="13"/>
-      <c r="D60" s="40"/>
+      <c r="D60" s="40">
+        <v>12</v>
+      </c>
       <c r="E60" s="9"/>
       <c r="F60" s="20"/>
       <c r="G60" s="13" t="str">
@@ -4995,13 +5072,21 @@
       <c r="H60" s="40"/>
       <c r="I60" s="9"/>
       <c r="J60" s="11"/>
-      <c r="K60" s="20"/>
+      <c r="K60" s="20" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="41"/>
-      <c r="B61" s="20"/>
+      <c r="A61" s="41">
+        <v>45231</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="C61" s="13"/>
-      <c r="D61" s="40"/>
+      <c r="D61" s="40">
+        <v>9</v>
+      </c>
       <c r="E61" s="9"/>
       <c r="F61" s="20"/>
       <c r="G61" s="13" t="str">
@@ -5011,13 +5096,19 @@
       <c r="H61" s="40"/>
       <c r="I61" s="9"/>
       <c r="J61" s="11"/>
-      <c r="K61" s="20"/>
+      <c r="K61" s="20" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="41"/>
-      <c r="B62" s="20"/>
+      <c r="B62" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="C62" s="13"/>
-      <c r="D62" s="40"/>
+      <c r="D62" s="40">
+        <v>2</v>
+      </c>
       <c r="E62" s="9"/>
       <c r="F62" s="20"/>
       <c r="G62" s="13" t="str">
@@ -5027,11 +5118,15 @@
       <c r="H62" s="40"/>
       <c r="I62" s="9"/>
       <c r="J62" s="11"/>
-      <c r="K62" s="20"/>
+      <c r="K62" s="20" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="41"/>
-      <c r="B63" s="20"/>
+      <c r="B63" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C63" s="13"/>
       <c r="D63" s="40"/>
       <c r="E63" s="9"/>
@@ -5040,16 +5135,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H63" s="40"/>
+      <c r="H63" s="40">
+        <v>3</v>
+      </c>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="20"/>
+      <c r="K63" s="20" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="41"/>
-      <c r="B64" s="20"/>
+      <c r="B64" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="C64" s="13"/>
-      <c r="D64" s="40"/>
+      <c r="D64" s="40">
+        <v>3</v>
+      </c>
       <c r="E64" s="9"/>
       <c r="F64" s="20"/>
       <c r="G64" s="13" t="str">
@@ -5059,11 +5162,17 @@
       <c r="H64" s="40"/>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="20"/>
+      <c r="K64" s="20" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="41"/>
-      <c r="B65" s="20"/>
+      <c r="A65" s="41">
+        <v>45261</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C65" s="13"/>
       <c r="D65" s="40"/>
       <c r="E65" s="9"/>
@@ -5072,16 +5181,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H65" s="40"/>
+      <c r="H65" s="40">
+        <v>1</v>
+      </c>
       <c r="I65" s="9"/>
       <c r="J65" s="11"/>
-      <c r="K65" s="20"/>
+      <c r="K65" s="48">
+        <v>45267</v>
+      </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="41"/>
-      <c r="B66" s="20"/>
+      <c r="B66" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="C66" s="13"/>
-      <c r="D66" s="40"/>
+      <c r="D66" s="40">
+        <v>9</v>
+      </c>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
       <c r="G66" s="13" t="str">
@@ -5091,7 +5208,9 @@
       <c r="H66" s="40"/>
       <c r="I66" s="9"/>
       <c r="J66" s="11"/>
-      <c r="K66" s="20"/>
+      <c r="K66" s="20" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="41"/>
@@ -5377,7 +5496,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>145</v>
+        <v>152.5</v>
       </c>
       <c r="C7" s="38">
         <v>1</v>
